--- a/data_xlsx/LIBOR_美元_3个月.xlsx
+++ b/data_xlsx/LIBOR_美元_3个月.xlsx
@@ -33546,8 +33546,184 @@
         <v>5.61225</v>
       </c>
     </row>
+    <row r="4184">
+      <c r="A4184" s="1" t="n">
+        <v>45132.0</v>
+      </c>
+      <c r="B4184" s="2" t="n">
+        <v>5.61897</v>
+      </c>
+    </row>
     <row r="4185">
-      <c r="A4185" s="3" t="inlineStr">
+      <c r="A4185" s="1" t="n">
+        <v>45133.0</v>
+      </c>
+      <c r="B4185" s="2" t="n">
+        <v>5.6272</v>
+      </c>
+    </row>
+    <row r="4186">
+      <c r="A4186" s="1" t="n">
+        <v>45134.0</v>
+      </c>
+      <c r="B4186" s="2" t="n">
+        <v>5.63073</v>
+      </c>
+    </row>
+    <row r="4187">
+      <c r="A4187" s="1" t="n">
+        <v>45135.0</v>
+      </c>
+      <c r="B4187" s="2" t="n">
+        <v>5.63352</v>
+      </c>
+    </row>
+    <row r="4188">
+      <c r="A4188" s="1" t="n">
+        <v>45138.0</v>
+      </c>
+      <c r="B4188" s="2" t="n">
+        <v>5.62693</v>
+      </c>
+    </row>
+    <row r="4189">
+      <c r="A4189" s="1" t="n">
+        <v>45139.0</v>
+      </c>
+      <c r="B4189" s="2" t="n">
+        <v>5.62796</v>
+      </c>
+    </row>
+    <row r="4190">
+      <c r="A4190" s="1" t="n">
+        <v>45140.0</v>
+      </c>
+      <c r="B4190" s="2" t="n">
+        <v>5.63102</v>
+      </c>
+    </row>
+    <row r="4191">
+      <c r="A4191" s="1" t="n">
+        <v>45141.0</v>
+      </c>
+      <c r="B4191" s="2" t="n">
+        <v>5.63146</v>
+      </c>
+    </row>
+    <row r="4192">
+      <c r="A4192" s="1" t="n">
+        <v>45142.0</v>
+      </c>
+      <c r="B4192" s="2" t="n">
+        <v>5.63219</v>
+      </c>
+    </row>
+    <row r="4193">
+      <c r="A4193" s="1" t="n">
+        <v>45145.0</v>
+      </c>
+      <c r="B4193" s="2" t="n">
+        <v>5.62904</v>
+      </c>
+    </row>
+    <row r="4194">
+      <c r="A4194" s="1" t="n">
+        <v>45146.0</v>
+      </c>
+      <c r="B4194" s="2" t="n">
+        <v>5.62689</v>
+      </c>
+    </row>
+    <row r="4195">
+      <c r="A4195" s="1" t="n">
+        <v>45147.0</v>
+      </c>
+      <c r="B4195" s="2" t="n">
+        <v>5.62839</v>
+      </c>
+    </row>
+    <row r="4196">
+      <c r="A4196" s="1" t="n">
+        <v>45148.0</v>
+      </c>
+      <c r="B4196" s="2" t="n">
+        <v>5.63076</v>
+      </c>
+    </row>
+    <row r="4197">
+      <c r="A4197" s="1" t="n">
+        <v>45149.0</v>
+      </c>
+      <c r="B4197" s="2" t="n">
+        <v>5.62618</v>
+      </c>
+    </row>
+    <row r="4198">
+      <c r="A4198" s="1" t="n">
+        <v>45152.0</v>
+      </c>
+      <c r="B4198" s="2" t="n">
+        <v>5.63344</v>
+      </c>
+    </row>
+    <row r="4199">
+      <c r="A4199" s="1" t="n">
+        <v>45153.0</v>
+      </c>
+      <c r="B4199" s="2" t="n">
+        <v>5.63809</v>
+      </c>
+    </row>
+    <row r="4200">
+      <c r="A4200" s="1" t="n">
+        <v>45154.0</v>
+      </c>
+      <c r="B4200" s="2" t="n">
+        <v>5.64084</v>
+      </c>
+    </row>
+    <row r="4201">
+      <c r="A4201" s="1" t="n">
+        <v>45155.0</v>
+      </c>
+      <c r="B4201" s="2" t="n">
+        <v>5.64137</v>
+      </c>
+    </row>
+    <row r="4202">
+      <c r="A4202" s="1" t="n">
+        <v>45156.0</v>
+      </c>
+      <c r="B4202" s="2" t="n">
+        <v>5.64478</v>
+      </c>
+    </row>
+    <row r="4203">
+      <c r="A4203" s="1" t="n">
+        <v>45159.0</v>
+      </c>
+      <c r="B4203" s="2" t="n">
+        <v>5.63895</v>
+      </c>
+    </row>
+    <row r="4204">
+      <c r="A4204" s="1" t="n">
+        <v>45160.0</v>
+      </c>
+      <c r="B4204" s="2" t="n">
+        <v>5.64468</v>
+      </c>
+    </row>
+    <row r="4205">
+      <c r="A4205" s="1" t="n">
+        <v>45161.0</v>
+      </c>
+      <c r="B4205" s="2" t="n">
+        <v>5.65266</v>
+      </c>
+    </row>
+    <row r="4207">
+      <c r="A4207" s="3" t="inlineStr">
         <is>
           <t>数据来源：Wind</t>
         </is>
